--- a/Edgewell Mexico Suncare Dataset.xlsx
+++ b/Edgewell Mexico Suncare Dataset.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\AleaaSALAH\Documents\Slide-Automate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salma Hany\Documents\Slide-Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F0E661-EBF3-4872-A4E2-EBDEECF38321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B065ED0C-F91A-4265-8BF6-928B6AE31278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edgewell Mexico Suncare Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="93" r:id="rId2"/>
+    <pivotCache cacheId="498" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,17 +49,24 @@
   <metadataTypes count="1">
     <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <metadataStrings count="8">
+  <metadataStrings count="15">
     <s v="pbiazure://api.powerbi.com 5fa2a8e9-a101-4d03-9b69-16bea0adccba Model"/>
     <s v="{[Market].[Channel].[All]}"/>
     <s v="{[Market].[Market].[All]}"/>
     <s v="{[Market].[Region].[All]}"/>
-    <s v="{[Time Logic].[Time Period].[All]}"/>
     <s v="{[Products].[Category].&amp;[Suncare]}"/>
     <s v="{[Scope].[Scope].&amp;[Category]}"/>
     <s v="{[Market].[Area].&amp;[NATIONAL]}"/>
+    <s v="{[Products].[Sector].[All]}"/>
+    <s v="{[Time Logic].[Time Period].&amp;[P12M]}"/>
+    <s v="{[Products].[Segment].[All]}"/>
+    <s v="{[Products].[Top Brands].[All]}"/>
+    <s v="{[Products].[Top Companies].[All]}"/>
+    <s v="{[Products].[Category Hierarchy].[All]}"/>
+    <s v="{[Products].[SubSegment].[All]}"/>
+    <s v="{[Clusters].[CLUSTER].&amp;[Cosmetic : Pg]}"/>
   </metadataStrings>
-  <mdxMetadata count="7">
+  <mdxMetadata count="14">
     <mdx n="0" f="s">
       <ms ns="1" c="0"/>
     </mdx>
@@ -81,8 +88,29 @@
     <mdx n="0" f="s">
       <ms ns="7" c="0"/>
     </mdx>
+    <mdx n="0" f="s">
+      <ms ns="8" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="9" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="10" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="11" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="12" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="13" c="0"/>
+    </mdx>
+    <mdx n="0" f="s">
+      <ms ns="14" c="0"/>
+    </mdx>
   </mdxMetadata>
-  <valueMetadata count="7">
+  <valueMetadata count="14">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -104,12 +132,33 @@
     <bk>
       <rc t="1" v="6"/>
     </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Category</t>
   </si>
@@ -129,9 +178,6 @@
     <t>Value Share</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -144,91 +190,25 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Volume Share</t>
-  </si>
-  <si>
     <t>Av Price/KG</t>
-  </si>
-  <si>
-    <t>Clinico</t>
-  </si>
-  <si>
-    <t>Cosmetic</t>
-  </si>
-  <si>
-    <t>Derma</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2025</t>
   </si>
   <si>
     <t>Time Period</t>
   </si>
   <si>
-    <t>Volume Sales</t>
-  </si>
-  <si>
-    <t>Total Volume Sales</t>
-  </si>
-  <si>
-    <t>Total Value Sales</t>
-  </si>
-  <si>
     <t>Value Sales</t>
-  </si>
-  <si>
-    <t>Total Volume Share</t>
-  </si>
-  <si>
-    <t>Total Value Share</t>
-  </si>
-  <si>
-    <t>Total Value Sales IYA</t>
   </si>
   <si>
     <t>Value Sales IYA</t>
   </si>
   <si>
-    <t>Total Av Price/KG</t>
-  </si>
-  <si>
-    <t>Total WoB %</t>
-  </si>
-  <si>
     <t>WoB %</t>
-  </si>
-  <si>
-    <t>Total Relative Price</t>
   </si>
   <si>
     <t>Relative Price</t>
   </si>
   <si>
-    <t>Total Growth Contribution</t>
-  </si>
-  <si>
     <t>Growth Contribution</t>
-  </si>
-  <si>
-    <t>Total Volume Sales IYA</t>
-  </si>
-  <si>
-    <t>Volume Sales IYA</t>
-  </si>
-  <si>
-    <t>Total IYA Price/KG</t>
-  </si>
-  <si>
-    <t>IYA Price/KG</t>
   </si>
   <si>
     <t>Suncare</t>
@@ -236,16 +216,44 @@
   <si>
     <t>NATIONAL</t>
   </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>P12M</t>
+  </si>
+  <si>
+    <t>Top Brands</t>
+  </si>
+  <si>
+    <t>Value Share DYA</t>
+  </si>
+  <si>
+    <t>Top Companies</t>
+  </si>
+  <si>
+    <t>Category Hierarchy</t>
+  </si>
+  <si>
+    <t>SubSegment</t>
+  </si>
+  <si>
+    <t>CLUSTER</t>
+  </si>
+  <si>
+    <t>Cosmetic : Pg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0%;\-0.0%;0.0%"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00;\-\$#,##0.00;\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0%;\-0%;0%"/>
     <numFmt numFmtId="167" formatCode="#,##0%;\-#,##0%;#,##0%"/>
+    <numFmt numFmtId="168" formatCode="\+0.0%;\-0.0%;0.0%"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -731,9 +739,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -793,15 +801,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Aleaa SALAH" refreshedDate="45880.461578125003" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshOnLoad="1" refreshedBy="Salma Hany" refreshedDate="45880.647188657407" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="20">
+  <cacheFields count="27">
     <cacheField name="[Products].[Sector].[Sector]" caption="Sector" numFmtId="0" hierarchy="102" level="1">
-      <sharedItems count="3">
-        <s v="[Products].[Sector].&amp;[Clinico]" c="Clinico"/>
-        <s v="[Products].[Sector].&amp;[Cosmetic]" c="Cosmetic"/>
-        <s v="[Products].[Sector].&amp;[Derma]" c="Derma"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
     <cacheField name="[Calendar].[Year].[Year]" caption="Year" numFmtId="0" hierarchy="49" level="1">
       <sharedItems count="3">
@@ -831,29 +835,56 @@
     <cacheField name="[Time Logic].[Time Period].[Time Period]" caption="Time Period" numFmtId="0" hierarchy="149" level="1">
       <sharedItems containsSemiMixedTypes="0" containsString="0"/>
     </cacheField>
-    <cacheField name="[Measures].[Volume Sales]" caption="Volume Sales" numFmtId="0" hierarchy="447" level="32767"/>
-    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
-    <cacheField name="[Measures].[Volume Share]" caption="Volume Share" numFmtId="0" hierarchy="640" level="32767"/>
+    <cacheField name="[Products].[Segment].[Segment]" caption="Segment" numFmtId="0" hierarchy="103" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Top Brands].[Top Brands]" caption="Top Brands" numFmtId="0" hierarchy="109" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Top Companies].[Top Companies]" caption="Top Companies" numFmtId="0" hierarchy="110" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
     <cacheField name="[Measures].[Value Share]" caption="Value Share" numFmtId="0" hierarchy="639" level="32767"/>
-    <cacheField name="[Measures].[Value Sales IYA]" caption="Value Sales IYA" numFmtId="0" hierarchy="466" level="32767"/>
+    <cacheField name="[Measures].[Value Share DYA]" caption="Value Share DYA" numFmtId="0" hierarchy="648" level="32767"/>
     <cacheField name="[Measures].[Av Price/KG]" caption="Av Price/KG" numFmtId="0" hierarchy="550" level="32767"/>
+    <cacheField name="[Products].[Category Hierarchy].[Category]" caption="Category" numFmtId="0" hierarchy="82" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Category Hierarchy].[Sector]" caption="Sector" numFmtId="0" hierarchy="82" level="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Category Hierarchy].[Segment]" caption="Segment" numFmtId="0" hierarchy="82" level="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Category Hierarchy].[SubSegment]" caption="SubSegment" numFmtId="0" hierarchy="82" level="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[Category Hierarchy].[SubCategory]" caption="SubCategory" numFmtId="0" hierarchy="82" level="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Products].[SubSegment].[SubSegment]" caption="SubSegment" numFmtId="0" hierarchy="108" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Growth Contribution]" caption="Growth Contribution" numFmtId="0" hierarchy="485" level="32767"/>
     <cacheField name="[Measures].[WoB %]" caption="WoB %" numFmtId="0" hierarchy="1366" level="32767"/>
     <cacheField name="[Measures].[Relative Price]" caption="Relative Price" numFmtId="0" hierarchy="564" level="32767"/>
-    <cacheField name="[Measures].[Growth Contribution]" caption="Growth Contribution" numFmtId="0" hierarchy="485" level="32767"/>
-    <cacheField name="[Measures].[Volume Sales IYA]" caption="Volume Sales IYA" numFmtId="0" hierarchy="464" level="32767"/>
-    <cacheField name="[Measures].[IYA Price/KG]" caption="IYA Price/KG" numFmtId="0" hierarchy="559" level="32767"/>
+    <cacheField name="[Clusters].[CLUSTER].[CLUSTER]" caption="CLUSTER" numFmtId="0" hierarchy="52" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0"/>
+    </cacheField>
+    <cacheField name="[Measures].[Value Sales]" caption="Value Sales" numFmtId="0" hierarchy="448" level="32767"/>
+    <cacheField name="[Measures].[Value Sales IYA]" caption="Value Sales IYA" numFmtId="0" hierarchy="466" level="32767"/>
   </cacheFields>
   <cacheHierarchies count="2657">
     <cacheHierarchy uniqueName="[2nd Measure Table].[Measures]" caption="Measures" attribute="1" defaultMemberUniqueName="[2nd Measure Table].[Measures].[All]" allUniqueName="[2nd Measure Table].[Measures].[All]" dimensionUniqueName="[2nd Measure Table]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Base Price Bracket].[Base Price Bracket]" caption="Base Price Bracket" attribute="1" defaultMemberUniqueName="[Base Price Bracket].[Base Price Bracket].[All]" allUniqueName="[Base Price Bracket].[Base Price Bracket].[All]" dimensionUniqueName="[Base Price Bracket]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[1. FY Hierarchy]" caption="1. FY Hierarchy" time="1" defaultMemberUniqueName="[Calendar].[1. FY Hierarchy].[All]" allUniqueName="[Calendar].[1. FY Hierarchy].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[2. FY Tabular]" caption="2. FY Tabular" time="1" defaultMemberUniqueName="[Calendar].[2. FY Tabular].[All]" allUniqueName="[Calendar].[2. FY Tabular].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[3. CY Hierarchy]" caption="3. CY Hierarchy" time="1" defaultMemberUniqueName="[Calendar].[3. CY Hierarchy].[All]" allUniqueName="[Calendar].[3. CY Hierarchy].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[1. FY Hierarchy]" caption="1. FY Hierarchy" time="1" defaultMemberUniqueName="[Calendar].[1. FY Hierarchy].[All]" allUniqueName="[Calendar].[1. FY Hierarchy].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="6" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[2. FY Tabular]" caption="2. FY Tabular" time="1" defaultMemberUniqueName="[Calendar].[2. FY Tabular].[All]" allUniqueName="[Calendar].[2. FY Tabular].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="4" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[3. CY Hierarchy]" caption="3. CY Hierarchy" time="1" defaultMemberUniqueName="[Calendar].[3. CY Hierarchy].[All]" allUniqueName="[Calendar].[3. CY Hierarchy].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Active]" caption="Active" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Active].[All]" allUniqueName="[Calendar].[Active].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="11" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Date]" caption="Date" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[Calendar].[Date].[All]" allUniqueName="[Calendar].[Date].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Day]" caption="Day" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Day].[All]" allUniqueName="[Calendar].[Day].[All]" dimensionUniqueName="[Calendar]" displayFolder="Week" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[DayOfYear]" caption="DayOfYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[DayOfYear].[All]" allUniqueName="[Calendar].[DayOfYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[End of Week]" caption="End of Week" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[End of Week].[All]" allUniqueName="[Calendar].[End of Week].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[End of Week]" caption="End of Week" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[End of Week].[All]" allUniqueName="[Calendar].[End of Week].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalf]" caption="FiscalHalf" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalf].[All]" allUniqueName="[Calendar].[FiscalHalf].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalfDate]" caption="FiscalHalfDate" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalfDate].[All]" allUniqueName="[Calendar].[FiscalHalfDate].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[FiscalHalfName]" caption="FiscalHalfName" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[FiscalHalfName].[All]" allUniqueName="[Calendar].[FiscalHalfName].[All]" dimensionUniqueName="[Calendar]" displayFolder="Fiscal" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -879,14 +910,14 @@
     <cacheHierarchy uniqueName="[Calendar].[MonthLong]" caption="MonthLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthLong].[All]" allUniqueName="[Calendar].[MonthLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthNum]" caption="MonthNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthNum].[All]" allUniqueName="[Calendar].[MonthNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthStart]" caption="MonthStart" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthStart].[All]" allUniqueName="[Calendar].[MonthStart].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[MonthYear]" caption="MonthYear" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYear].[All]" allUniqueName="[Calendar].[MonthYear].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearLong]" caption="MonthYearLong" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearLong].[All]" allUniqueName="[Calendar].[MonthYearLong].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[MonthYearNum]" caption="MonthYearNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[MonthYearNum].[All]" allUniqueName="[Calendar].[MonthYearNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Quarter]" caption="Quarter" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Quarter].[All]" allUniqueName="[Calendar].[Quarter].[All]" dimensionUniqueName="[Calendar]" displayFolder="Month" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[QuarterDate]" caption="QuarterDate" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[QuarterDate].[All]" allUniqueName="[Calendar].[QuarterDate].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[QuarterName]" caption="QuarterName" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[QuarterName].[All]" allUniqueName="[Calendar].[QuarterName].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[QuarterNum]" caption="QuarterNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[QuarterNum].[All]" allUniqueName="[Calendar].[QuarterNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Calendar].[QuarterStart]" caption="QuarterStart" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[QuarterStart].[All]" allUniqueName="[Calendar].[QuarterStart].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="2" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Calendar].[QuarterStart]" caption="QuarterStart" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[QuarterStart].[All]" allUniqueName="[Calendar].[QuarterStart].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Start of Week]" caption="Start of Week" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Start of Week].[All]" allUniqueName="[Calendar].[Start of Week].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[Weekday]" caption="Weekday" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[Weekday].[All]" allUniqueName="[Calendar].[Weekday].[All]" dimensionUniqueName="[Calendar]" displayFolder="Week" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[WeekdayNum]" caption="WeekdayNum" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[WeekdayNum].[All]" allUniqueName="[Calendar].[WeekdayNum].[All]" dimensionUniqueName="[Calendar]" displayFolder="Week" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -901,7 +932,12 @@
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Calendar].[YearDay]" caption="YearDay" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[YearDay].[All]" allUniqueName="[Calendar].[YearDay].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Calendar].[YY]" caption="YY" attribute="1" time="1" defaultMemberUniqueName="[Calendar].[YY].[All]" allUniqueName="[Calendar].[YY].[All]" dimensionUniqueName="[Calendar]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Clusters].[CLUSTER]" caption="CLUSTER" attribute="1" defaultMemberUniqueName="[Clusters].[CLUSTER].[All]" allUniqueName="[Clusters].[CLUSTER].[All]" dimensionUniqueName="[Clusters]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Clusters].[CLUSTER]" caption="CLUSTER" attribute="1" defaultMemberUniqueName="[Clusters].[CLUSTER].[All]" allUniqueName="[Clusters].[CLUSTER].[All]" dimensionUniqueName="[Clusters]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="24"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Clusters].[GROUP]" caption="GROUP" attribute="1" defaultMemberUniqueName="[Clusters].[GROUP].[All]" allUniqueName="[Clusters].[GROUP].[All]" dimensionUniqueName="[Clusters]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Clusters].[GROUP SORT]" caption="GROUP SORT" attribute="1" defaultMemberUniqueName="[Clusters].[GROUP SORT].[All]" allUniqueName="[Clusters].[GROUP SORT].[All]" dimensionUniqueName="[Clusters]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Cumulative Share].[Cumulative Share]" caption="Cumulative Share" attribute="1" defaultMemberUniqueName="[Cumulative Share].[Cumulative Share].[All]" allUniqueName="[Cumulative Share].[Cumulative Share].[All]" dimensionUniqueName="[Cumulative Share]" displayFolder="" count="0" memberValueDatatype="6" unbalanced="0"/>
@@ -920,7 +956,7 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Market].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[Market].[Country].[All]" allUniqueName="[Market].[Country].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Market].[Country Hierarchy]" caption="Country Hierarchy" defaultMemberUniqueName="[Market].[Country Hierarchy].[All]" allUniqueName="[Market].[Country Hierarchy].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Market].[Country Hierarchy]" caption="Country Hierarchy" defaultMemberUniqueName="[Market].[Country Hierarchy].[All]" allUniqueName="[Market].[Country Hierarchy].[All]" dimensionUniqueName="[Market]" displayFolder="" count="6" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Market].[Level]" caption="Level" attribute="1" defaultMemberUniqueName="[Market].[Level].[All]" allUniqueName="[Market].[Level].[All]" dimensionUniqueName="[Market]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Market].[Market]" caption="Market" attribute="1" defaultMemberUniqueName="[Market].[Market].[All]" allUniqueName="[Market].[Market].[All]" dimensionUniqueName="[Market]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
@@ -956,7 +992,16 @@
         <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Category Hierarchy]" caption="Category Hierarchy" defaultMemberUniqueName="[Products].[Category Hierarchy].[All]" allUniqueName="[Products].[Category Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="6" unbalanced="0">
+      <fieldsUsage count="6">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="15"/>
+        <fieldUsage x="16"/>
+        <fieldUsage x="17"/>
+        <fieldUsage x="18"/>
+        <fieldUsage x="19"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Company Logo URL]" caption="Company Logo URL" attribute="1" defaultMemberUniqueName="[Products].[Company Logo URL].[All]" allUniqueName="[Products].[Company Logo URL].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Ean]" caption="Ean" attribute="1" defaultMemberUniqueName="[Products].[Ean].[All]" allUniqueName="[Products].[Ean].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Financials]" caption="Financials" attribute="1" defaultMemberUniqueName="[Products].[Financials].[All]" allUniqueName="[Products].[Financials].[All]" dimensionUniqueName="[Products]" displayFolder="zKeys" count="0" memberValueDatatype="20" unbalanced="0"/>
@@ -964,7 +1009,7 @@
     <cacheHierarchy uniqueName="[Products].[Item]" caption="Item" attribute="1" defaultMemberUniqueName="[Products].[Item].[All]" allUniqueName="[Products].[Item].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Key Company]" caption="Key Company" attribute="1" defaultMemberUniqueName="[Products].[Key Company].[All]" allUniqueName="[Products].[Key Company].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Manufacturer]" caption="Manufacturer" attribute="1" defaultMemberUniqueName="[Products].[Manufacturer].[All]" allUniqueName="[Products].[Manufacturer].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[MANUFACTURER Hierarchy]" caption="MANUFACTURER Hierarchy" defaultMemberUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" allUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[MANUFACTURER Hierarchy]" caption="MANUFACTURER Hierarchy" defaultMemberUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" allUniqueName="[Products].[MANUFACTURER Hierarchy].[All]" dimensionUniqueName="[Products]" displayFolder="" count="9" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count]" caption="Pack Count" attribute="1" defaultMemberUniqueName="[Products].[Pack Count].[All]" allUniqueName="[Products].[Pack Count].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Count Bracket]" caption="Pack Count Bracket" attribute="1" defaultMemberUniqueName="[Products].[Pack Count Bracket].[All]" allUniqueName="[Products].[Pack Count Bracket].[All]" dimensionUniqueName="[Products]" displayFolder="Brackets" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Pack Size]" caption="Pack Size" attribute="1" defaultMemberUniqueName="[Products].[Pack Size].[All]" allUniqueName="[Products].[Pack Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -982,14 +1027,34 @@
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Segment]" caption="Segment" attribute="1" defaultMemberUniqueName="[Products].[Segment].[All]" allUniqueName="[Products].[Segment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="9"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[SKU]" caption="SKU" attribute="1" defaultMemberUniqueName="[Products].[SKU].[All]" allUniqueName="[Products].[SKU].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Store Link]" caption="Store Link" attribute="1" defaultMemberUniqueName="[Products].[Store Link].[All]" allUniqueName="[Products].[Store Link].[All]" dimensionUniqueName="[Products]" displayFolder="Images" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[SubBrand]" caption="SubBrand" attribute="1" defaultMemberUniqueName="[Products].[SubBrand].[All]" allUniqueName="[Products].[SubBrand].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubCategory]" caption="SubCategory" attribute="1" defaultMemberUniqueName="[Products].[SubCategory].[All]" allUniqueName="[Products].[SubCategory].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[SubSegment]" caption="SubSegment" attribute="1" defaultMemberUniqueName="[Products].[SubSegment].[All]" allUniqueName="[Products].[SubSegment].[All]" dimensionUniqueName="[Products]" displayFolder="Category" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="20"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Top Brands]" caption="Top Brands" attribute="1" defaultMemberUniqueName="[Products].[Top Brands].[All]" allUniqueName="[Products].[Top Brands].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="10"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Top Companies]" caption="Top Companies" attribute="1" defaultMemberUniqueName="[Products].[Top Companies].[All]" allUniqueName="[Products].[Top Companies].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="11"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Products].[Total Size]" caption="Total Size" attribute="1" defaultMemberUniqueName="[Products].[Total Size].[All]" allUniqueName="[Products].[Total Size].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[UnitOfMeasure]" caption="UnitOfMeasure" attribute="1" defaultMemberUniqueName="[Products].[UnitOfMeasure].[All]" allUniqueName="[Products].[UnitOfMeasure].[All]" dimensionUniqueName="[Products]" displayFolder="Pack Size" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Products].[Variant]" caption="Variant" attribute="1" defaultMemberUniqueName="[Products].[Variant].[All]" allUniqueName="[Products].[Variant].[All]" dimensionUniqueName="[Products]" displayFolder="Company &amp; Product" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -1336,14 +1401,10 @@
     <cacheHierarchy uniqueName="[Titles].[Titles]" caption="Titles" attribute="1" defaultMemberUniqueName="[Titles].[Titles].[All]" allUniqueName="[Titles].[Titles].[All]" dimensionUniqueName="[Titles]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[VAT].[VAT SORT]" caption="VAT SORT" attribute="1" defaultMemberUniqueName="[VAT].[VAT SORT].[All]" allUniqueName="[VAT].[VAT SORT].[All]" dimensionUniqueName="[VAT]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales]" caption="Unit Sales" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="9"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Volume Sales]" caption="Volume Sales" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Sales]" caption="Value Sales" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="10"/>
+        <fieldUsage x="25"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Unit Sales PP]" caption="Unit Sales PP" measure="1" displayFolder="Unit Sales" measureGroup="Sales Metrics" count="0"/>
@@ -1361,15 +1422,11 @@
     <cacheHierarchy uniqueName="[Measures].[Value Sales DPP]" caption="Value Sales DPP" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Sales DYA]" caption="Value Sales DYA" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Sales IPP]" caption="Volume Sales IPP" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Volume Sales IYA]" caption="Volume Sales IYA" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="18"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Volume Sales IYA]" caption="Volume Sales IYA" measure="1" displayFolder="Volume Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Sales IPP]" caption="Value Sales IPP" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Sales IYA]" caption="Value Sales IYA" measure="1" displayFolder="Value Sales" measureGroup="Sales Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="13"/>
+        <fieldUsage x="26"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Sales]" caption="Sales" measure="1" displayFolder="Dynamic" measureGroup="Sales Metrics" count="0"/>
@@ -1392,7 +1449,7 @@
     <cacheHierarchy uniqueName="[Measures].[Volume Sales (log)]" caption="Volume Sales (log)" measure="1" displayFolder="" measureGroup="Sales Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Growth Contribution]" caption="Growth Contribution" measure="1" displayFolder="Contribution" measureGroup="Sales Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="17"/>
+        <fieldUsage x="21"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Growth vs. Fair Share]" caption="Growth vs. Fair Share" measure="1" displayFolder="Contribution" measureGroup="Sales Metrics" count="0"/>
@@ -1472,18 +1529,14 @@
     <cacheHierarchy uniqueName="[Measures].[DPP Price/Unit]" caption="DPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/KG]" caption="DYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[DYA Price/Unit]" caption="DYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="19"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[IYA Price/KG]" caption="IYA Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IYA Price/Unit]" caption="IYA Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/KG]" caption="IPP Price/KG" measure="1" displayFolder="Price/KG" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[IPP Price/Unit]" caption="IPP Price/Unit" measure="1" displayFolder="Price/Unit" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Relative Price Index]" caption="Relative Price Index" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Relative Price]" caption="Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="16"/>
+        <fieldUsage x="23"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Channel Relative Price]" caption="Channel Relative Price" measure="1" displayFolder="Relative Price" measureGroup="Price Metrics" count="0"/>
@@ -1565,11 +1618,7 @@
         <fieldUsage x="12"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="11"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Volume Share]" caption="Volume Share" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Unit Share]" caption="Unit Share" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share YA]" caption="Value Share YA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Value Share PP]" caption="Value Share PP" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
@@ -1577,7 +1626,11 @@
     <cacheHierarchy uniqueName="[Measures].[Unit Share PP]" caption="Unit Share PP" measure="1" displayFolder="Unit Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share YA]" caption="Volume Share YA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share PP]" caption="Volume Share PP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Value Share DYA]" caption="Value Share DYA" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="13"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[Value Share DPP]" caption="Value Share DPP" measure="1" displayFolder="Value Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DYA]" caption="Volume Share DYA" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Volume Share DPP]" caption="Volume Share DPP" measure="1" displayFolder="Volume Share" measureGroup="Share Metrics" count="0"/>
@@ -2297,7 +2350,7 @@
     <cacheHierarchy uniqueName="[Measures].[Price Bracket WoB %]" caption="Price Bracket WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[WoB %]" caption="WoB %" measure="1" displayFolder="WoB" measureGroup="Distribution" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="15"/>
+        <fieldUsage x="22"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[ND PP]" caption="ND PP" measure="1" displayFolder="Numeric" measureGroup="Distribution" count="0"/>
@@ -3754,18 +3807,15 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="93" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A16:AS22" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="7" colPageCount="1"/>
-  <pivotFields count="20">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="498" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A16:H18" firstHeaderRow="1" firstDataRow="2" firstDataCol="0" rowPageCount="14" colPageCount="1"/>
+  <pivotFields count="27">
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+    <pivotField compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
       <items count="4">
         <item s="1" x="0"/>
         <item s="1" x="1"/>
@@ -3808,197 +3858,122 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0" dataSourceSort="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" allDrilled="1" outline="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="1">
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
     <i>
       <x/>
     </i>
-    <i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
+    <i i="2">
       <x v="2"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="44">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
+    <i i="3">
       <x v="3"/>
     </i>
-    <i r="1" i="4">
+    <i i="4">
       <x v="4"/>
     </i>
-    <i r="1" i="5">
+    <i i="5">
       <x v="5"/>
     </i>
-    <i r="1" i="6">
+    <i i="6">
       <x v="6"/>
     </i>
-    <i r="1" i="7">
+    <i i="7">
       <x v="7"/>
     </i>
-    <i r="1" i="8">
-      <x v="8"/>
-    </i>
-    <i r="1" i="9">
-      <x v="9"/>
-    </i>
-    <i r="1" i="10">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-    <i r="1" i="4">
-      <x v="4"/>
-    </i>
-    <i r="1" i="5">
-      <x v="5"/>
-    </i>
-    <i r="1" i="6">
-      <x v="6"/>
-    </i>
-    <i r="1" i="7">
-      <x v="7"/>
-    </i>
-    <i r="1" i="8">
-      <x v="8"/>
-    </i>
-    <i r="1" i="9">
-      <x v="9"/>
-    </i>
-    <i r="1" i="10">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-    <i r="1" i="4">
-      <x v="4"/>
-    </i>
-    <i r="1" i="5">
-      <x v="5"/>
-    </i>
-    <i r="1" i="6">
-      <x v="6"/>
-    </i>
-    <i r="1" i="7">
-      <x v="7"/>
-    </i>
-    <i r="1" i="8">
-      <x v="8"/>
-    </i>
-    <i r="1" i="9">
-      <x v="9"/>
-    </i>
-    <i r="1" i="10">
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-    <i t="grand" i="2">
-      <x/>
-    </i>
-    <i t="grand" i="3">
-      <x/>
-    </i>
-    <i t="grand" i="4">
-      <x/>
-    </i>
-    <i t="grand" i="5">
-      <x/>
-    </i>
-    <i t="grand" i="6">
-      <x/>
-    </i>
-    <i t="grand" i="7">
-      <x/>
-    </i>
-    <i t="grand" i="8">
-      <x/>
-    </i>
-    <i t="grand" i="9">
-      <x/>
-    </i>
-    <i t="grand" i="10">
-      <x/>
-    </i>
   </colItems>
-  <pageFields count="7">
+  <pageFields count="14">
+    <pageField fld="0" hier="102" name="[Products].[Sector].[All]" cap="All"/>
+    <pageField fld="9" hier="103" name="[Products].[Segment].[All]" cap="All"/>
     <pageField fld="2" hier="145" name="[Scope].[Scope].&amp;[Category]" cap="Category"/>
+    <pageField fld="24" hier="52" name="[Clusters].[CLUSTER].&amp;[Cosmetic : Pg]" cap="Cosmetic : Pg"/>
+    <pageField fld="20" hier="108" name="[Products].[SubSegment].[All]" cap="All"/>
+    <pageField fld="11" hier="110" name="[Products].[Top Companies].[All]" cap="All"/>
     <pageField fld="3" hier="81" name="[Products].[Category].&amp;[Suncare]" cap="Suncare"/>
     <pageField fld="4" hier="58" name="[Market].[Area].&amp;[NATIONAL]" cap="NATIONAL"/>
+    <pageField fld="10" hier="109" name="[Products].[Top Brands].[All]" cap="All"/>
     <pageField fld="5" hier="64" name="[Market].[Region].[All]" cap="All"/>
+    <pageField fld="15" hier="82" name="[Products].[Category Hierarchy].[All]" cap="All"/>
     <pageField fld="6" hier="59" name="[Market].[Channel].[All]" cap="All"/>
     <pageField fld="7" hier="63" name="[Market].[Market].[All]" cap="All"/>
-    <pageField fld="8" hier="149" name="[Time Logic].[Time Period].[All]" cap="All"/>
+    <pageField fld="8" hier="149" name="[Time Logic].[Time Period].&amp;[P12M]" cap="P12M"/>
   </pageFields>
-  <dataFields count="11">
-    <dataField fld="9" baseField="0" baseItem="0"/>
-    <dataField fld="10" baseField="0" baseItem="0"/>
-    <dataField fld="11" baseField="0" baseItem="0"/>
+  <dataFields count="8">
+    <dataField fld="21" baseField="0" baseItem="0"/>
+    <dataField fld="25" baseField="0" baseItem="0"/>
+    <dataField fld="22" baseField="0" baseItem="0"/>
+    <dataField fld="23" baseField="0" baseItem="0"/>
     <dataField fld="12" baseField="0" baseItem="0"/>
     <dataField fld="13" baseField="0" baseItem="0"/>
+    <dataField fld="26" baseField="0" baseItem="0"/>
     <dataField fld="14" baseField="0" baseItem="0"/>
-    <dataField fld="15" baseField="0" baseItem="0"/>
-    <dataField fld="16" baseField="0" baseItem="0"/>
-    <dataField fld="17" baseField="0" baseItem="0"/>
-    <dataField fld="18" baseField="0" baseItem="0"/>
-    <dataField fld="19" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotHierarchies count="2657">
     <pivotHierarchy/>
@@ -4110,8 +4085,8 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
-    <pivotHierarchy multipleItemSelectionAllowed="1"/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -6660,11 +6635,7 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleMedium21" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="102"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="2">
-    <colHierarchyUsage hierarchyUsage="49"/>
+  <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
   </colHierarchiesUsage>
   <extLst>
@@ -6992,734 +6963,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:AS22"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="34" width="19" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="97" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="97" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="W6" s="3"/>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s" vm="7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" vm="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" t="s" vm="6">
+      <c r="B3" t="s" vm="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" vm="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" vm="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" vm="11">
+        <v>6</v>
+      </c>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s" vm="5">
-        <v>40</v>
+      <c r="B7" t="s" vm="4">
+        <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s" vm="7">
-        <v>41</v>
+      <c r="B8" t="s" vm="6">
+        <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" vm="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" t="s" vm="3">
+      <c r="B10" t="s" vm="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s" vm="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B12" t="s" vm="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s" vm="1">
-        <v>7</v>
+      <c r="B13" t="s" vm="2">
+        <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
       </c>
-      <c r="B13" t="s" vm="2">
-        <v>7</v>
+      <c r="B14" t="s" vm="8">
+        <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s" vm="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
-      <c r="M17" t="s">
-        <v>18</v>
+      <c r="C17" t="s">
+        <v>14</v>
       </c>
-      <c r="X17" t="s">
-        <v>19</v>
+      <c r="D17" t="s">
+        <v>15</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>23</v>
+      <c r="G17" t="s">
+        <v>13</v>
       </c>
-      <c r="AK17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>38</v>
+      <c r="H17" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>-1</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
+      <c r="B18" s="5">
+        <v>928165061</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" t="s">
-        <v>35</v>
-      </c>
-      <c r="V18" t="s">
-        <v>37</v>
-      </c>
-      <c r="W18" t="s">
-        <v>39</v>
-      </c>
-      <c r="X18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5">
-        <v>9076</v>
-      </c>
-      <c r="C19" s="5">
-        <v>78531158</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4.6411068293201766E-3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.0175016973424637E-2</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4">
-        <v>8652.6177000000007</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2.0199999999999999E-2</v>
-      </c>
-      <c r="I19" s="8">
-        <v>4.3470000000000004</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="5">
-        <v>9733</v>
-      </c>
-      <c r="N19" s="5">
-        <v>102942769</v>
-      </c>
-      <c r="O19" s="2">
-        <v>5.3721836466601169E-3</v>
-      </c>
-      <c r="P19" s="2">
-        <v>2.4709371385892583E-2</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1.310852553581344</v>
-      </c>
-      <c r="R19" s="4">
-        <v>10576.6741</v>
-      </c>
-      <c r="S19" s="7">
-        <v>2.47E-2</v>
-      </c>
-      <c r="T19" s="8">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U19" s="7">
-        <v>8.9208233940108697E-2</v>
-      </c>
-      <c r="V19" s="8">
-        <v>1.0723887174966946</v>
-      </c>
-      <c r="W19" s="8">
-        <v>1.222</v>
-      </c>
-      <c r="X19" s="5">
-        <v>4253</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>47835810</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>6.6293089339017532E-3</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>3.270138060799211E-2</v>
-      </c>
-      <c r="AB19" s="7">
-        <v>1.709252543495158</v>
-      </c>
-      <c r="AC19" s="4">
-        <v>11247.5453</v>
-      </c>
-      <c r="AD19" s="7">
-        <v>3.27E-2</v>
-      </c>
-      <c r="AE19" s="8">
-        <v>4.9329999999999998</v>
-      </c>
-      <c r="AF19" s="7">
-        <v>0.11625088258086434</v>
-      </c>
-      <c r="AG19" s="8">
-        <v>1.5682153392330382</v>
-      </c>
-      <c r="AH19" s="8">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="AI19" s="5">
-        <v>23062</v>
-      </c>
-      <c r="AJ19" s="5">
-        <v>229309737</v>
-      </c>
-      <c r="AK19" s="2">
-        <v>5.2308389506295627E-3</v>
-      </c>
-      <c r="AL19" s="2">
-        <v>2.4083501508978193E-2</v>
-      </c>
-      <c r="AM19" s="6"/>
-      <c r="AN19" s="4">
-        <v>9943.1851999999999</v>
-      </c>
-      <c r="AO19" s="7">
-        <v>2.41E-2</v>
-      </c>
-      <c r="AP19" s="8">
-        <v>4.6040000000000001</v>
-      </c>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1626632</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1902903382</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.83179516130351894</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.48886466223555686</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4">
-        <v>1169.8425999999999</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.4889</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="5">
-        <v>1450884</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1868224160</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0.80082351772329363</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0.44843018164332848</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0.98177562648317374</v>
-      </c>
-      <c r="R20" s="4">
-        <v>1287.6454000000001</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0.44840000000000002</v>
-      </c>
-      <c r="T20" s="8">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="U20" s="7">
-        <v>-0.12672953657327099</v>
-      </c>
-      <c r="V20" s="8">
-        <v>0.89195589414200627</v>
-      </c>
-      <c r="W20" s="8">
-        <v>1.101</v>
-      </c>
-      <c r="X20" s="5">
-        <v>521695</v>
-      </c>
-      <c r="Y20" s="5">
-        <v>694284203</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0.81318535722357743</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0.47462459551577479</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>1.1285013770907044</v>
-      </c>
-      <c r="AC20" s="4">
-        <v>1330.8240000000001</v>
-      </c>
-      <c r="AD20" s="7">
-        <v>0.47460000000000002</v>
-      </c>
-      <c r="AE20" s="8">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="AF20" s="7">
-        <v>0.46301113099934632</v>
-      </c>
-      <c r="AG20" s="8">
-        <v>1.0378644098817893</v>
-      </c>
-      <c r="AH20" s="8">
-        <v>1.087</v>
-      </c>
-      <c r="AI20" s="5">
-        <v>3599211</v>
-      </c>
-      <c r="AJ20" s="5">
-        <v>4465411745</v>
-      </c>
-      <c r="AK20" s="2">
-        <v>0.81635994668000955</v>
-      </c>
-      <c r="AL20" s="2">
-        <v>0.46898466635508135</v>
-      </c>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="4">
-        <v>1240.6641</v>
-      </c>
-      <c r="AO20" s="7">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="AP20" s="8">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="6"/>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5">
-        <v>319860</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1911060723</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.16356373186716083</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.49096032079101853</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4">
-        <v>5974.6787000000004</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="I21" s="8">
-        <v>3.0019999999999998</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="5">
-        <v>351123</v>
-      </c>
-      <c r="N21" s="5">
-        <v>2194975843</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0.19380429863004625</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0.52686044697077894</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>1.1485641542327905</v>
-      </c>
-      <c r="R21" s="4">
-        <v>6251.3018000000002</v>
-      </c>
-      <c r="S21" s="7">
-        <v>0.52690000000000003</v>
-      </c>
-      <c r="T21" s="8">
-        <v>2.7189999999999999</v>
-      </c>
-      <c r="U21" s="7">
-        <v>1.0375213026331622</v>
-      </c>
-      <c r="V21" s="8">
-        <v>1.0977396360907896</v>
-      </c>
-      <c r="W21" s="8">
-        <v>1.046</v>
-      </c>
-      <c r="X21" s="5">
-        <v>115597</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>720687034</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0.18018533384252078</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>0.4926740238762331</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>1.1107186042502373</v>
-      </c>
-      <c r="AC21" s="4">
-        <v>6234.4786999999997</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>0.49270000000000003</v>
-      </c>
-      <c r="AE21" s="8">
-        <v>2.734</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>0.42073798641978932</v>
-      </c>
-      <c r="AG21" s="8">
-        <v>1.0804164758442141</v>
-      </c>
-      <c r="AH21" s="8">
-        <v>1.028</v>
-      </c>
-      <c r="AI21" s="5">
-        <v>786580</v>
-      </c>
-      <c r="AJ21" s="5">
-        <v>4826723600</v>
-      </c>
-      <c r="AK21" s="2">
-        <v>0.17840921436936091</v>
-      </c>
-      <c r="AL21" s="2">
-        <v>0.50693183213594051</v>
-      </c>
-      <c r="AM21" s="6"/>
-      <c r="AN21" s="4">
-        <v>6136.3415999999997</v>
-      </c>
-      <c r="AO21" s="7">
-        <v>0.50690000000000002</v>
-      </c>
-      <c r="AP21" s="8">
-        <v>2.8410000000000002</v>
-      </c>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1955568</v>
-      </c>
-      <c r="C22" s="5">
-        <v>3892495263</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="C18" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4">
-        <v>1990.4679000000001</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
-        <v>1</v>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6">
+        <v>0.9430891650533082</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="5">
-        <v>1811740</v>
+      <c r="H18" s="4">
+        <v>1184.375</v>
       </c>
-      <c r="N22" s="5">
-        <v>4166142772</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>1.0703013081611552</v>
-      </c>
-      <c r="R22" s="4">
-        <v>2299.5257000000001</v>
-      </c>
-      <c r="S22" s="7">
-        <v>1</v>
-      </c>
-      <c r="T22" s="8">
-        <v>1</v>
-      </c>
-      <c r="U22" s="7">
-        <v>1</v>
-      </c>
-      <c r="V22" s="8">
-        <v>0.92645205894144311</v>
-      </c>
-      <c r="W22" s="8">
-        <v>1.155</v>
-      </c>
-      <c r="X22" s="5">
-        <v>641545</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>1462807047</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>1.1321504478938731</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>2280.1316000000002</v>
-      </c>
-      <c r="AD22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="8">
-        <v>1.0476478974209911</v>
-      </c>
-      <c r="AH22" s="8">
-        <v>1.081</v>
-      </c>
-      <c r="AI22" s="5">
-        <v>4408853</v>
-      </c>
-      <c r="AJ22" s="5">
-        <v>9521445082</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="4">
-        <v>2159.6194999999998</v>
-      </c>
-      <c r="AO22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
